--- a/Peter/Games/Results Tracker.xlsx
+++ b/Peter/Games/Results Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\DataClass\Final-Project\Peter\Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35880A5E-78D7-45FC-B09D-2DA36BA5B8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED6CA7-D090-440A-8F3C-2275875EFE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{6E3B00A5-36E2-41A8-9CB6-9F2B4B5BC870}"/>
   </bookViews>
@@ -259,12 +259,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -289,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -303,6 +309,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -693,7 +705,7 @@
   <dimension ref="A1:AS500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +722,7 @@
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="4.7109375" customWidth="1"/>
     <col min="18" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -739,16 +751,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -760,13 +772,14 @@
       <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -778,6 +791,7 @@
       <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="9"/>
       <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
@@ -796,10 +810,10 @@
       <c r="Z1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="10" t="s">
         <v>52</v>
       </c>
       <c r="AD1" s="6" t="s">
@@ -820,10 +834,10 @@
       <c r="AK1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AQ1" s="5" t="s">

--- a/Peter/Games/Results Tracker.xlsx
+++ b/Peter/Games/Results Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\DataClass\Final-Project\Peter\Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3CA600-738D-4D26-BC5B-55D6A495EFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C6B53-4214-43EF-A4ED-6CABD0A8A2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{6E3B00A5-36E2-41A8-9CB6-9F2B4B5BC870}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="65">
   <si>
     <t>C</t>
   </si>
@@ -227,6 +227,12 @@
   <si>
     <t>8/4/23</t>
   </si>
+  <si>
+    <t>8/5/23</t>
+  </si>
+  <si>
+    <t>8/6/23</t>
+  </si>
 </sst>
 </file>
 
@@ -298,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -318,30 +324,13 @@
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -353,6 +342,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -719,7 +715,7 @@
   <dimension ref="A1:AS500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
@@ -750,8 +746,7 @@
     <col min="30" max="30" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4.7109375" customWidth="1"/>
     <col min="37" max="37" width="8" bestFit="1" customWidth="1"/>
@@ -786,7 +781,6 @@
       <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11"/>
       <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
@@ -805,7 +799,6 @@
       <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11"/>
       <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
@@ -870,32 +863,32 @@
       <c r="AE2" s="4"/>
       <c r="AG2" s="7">
         <f>COUNTIF(AA:AA,"W")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AH2" s="7">
         <f>COUNTIF(AA:AA,"L")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8">
         <f>+AG2/SUM(AG2:AH2)</f>
-        <v>0.66666666666666663</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4">
         <f>SUM(AE:AE)</f>
-        <v>230.76977808555694</v>
+        <v>55.678514738333149</v>
       </c>
       <c r="AQ2">
         <f>COUNTIF(AO:AO,"W")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AR2">
         <f>COUNTIF(AO:AO,"L")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AS2" s="8">
         <f>+AQ2/SUM(AQ2:AR2)</f>
-        <v>0.44444444444444442</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -8329,1984 +8322,2769 @@
       </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83">
+        <v>-125</v>
+      </c>
+      <c r="D83">
+        <v>-147</v>
+      </c>
       <c r="E83">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="1" t="e">
+        <v>-22</v>
+      </c>
+      <c r="F83" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G83" s="1" t="e">
+        <v>0.17599999999999993</v>
+      </c>
+      <c r="G83" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83">
+        <v>17.599999999999994</v>
+      </c>
+      <c r="H83" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>HOU</v>
+      </c>
+      <c r="I83" t="s">
+        <v>31</v>
+      </c>
+      <c r="J83">
+        <v>105</v>
+      </c>
+      <c r="K83">
+        <v>122</v>
       </c>
       <c r="L83">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="1" t="e">
+        <v>17</v>
+      </c>
+      <c r="M83" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N83" s="1" t="e">
+        <v>0.161904761904762</v>
+      </c>
+      <c r="N83" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O83">
+        <v>16.1904761904762</v>
+      </c>
+      <c r="O83" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>NYY</v>
       </c>
       <c r="R83">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-125</v>
       </c>
       <c r="S83">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-147</v>
       </c>
       <c r="T83">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="1" t="e">
+        <v>-22</v>
+      </c>
+      <c r="U83" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V83" s="1" t="e">
+        <v>0.17599999999999993</v>
+      </c>
+      <c r="V83" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X83" s="1" t="e">
+        <v>17.599999999999994</v>
+      </c>
+      <c r="X83" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y83" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y83" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z83" t="e">
+        <v/>
+      </c>
+      <c r="Z83" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>-142</v>
+      </c>
+      <c r="D84">
+        <v>-150</v>
+      </c>
       <c r="E84">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="1" t="e">
+        <v>-8</v>
+      </c>
+      <c r="F84" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G84" s="1" t="e">
+        <v>5.6338028169014009E-2</v>
+      </c>
+      <c r="G84" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84">
+        <v>5.6338028169014009</v>
+      </c>
+      <c r="H84" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>TB</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84">
+        <v>120</v>
+      </c>
+      <c r="K84">
+        <v>127</v>
       </c>
       <c r="L84">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="1" t="e">
+        <v>7</v>
+      </c>
+      <c r="M84" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N84" s="1" t="e">
+        <v>5.8333333333333348E-2</v>
+      </c>
+      <c r="N84" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O84">
+        <v>5.8333333333333348</v>
+      </c>
+      <c r="O84" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>DET</v>
       </c>
       <c r="R84">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-142</v>
       </c>
       <c r="S84">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="T84">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U84" s="1" t="e">
+        <v>-8</v>
+      </c>
+      <c r="U84" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V84" s="1" t="e">
+        <v>5.6338028169014009E-2</v>
+      </c>
+      <c r="V84" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X84" s="1" t="e">
+        <v>5.6338028169014009</v>
+      </c>
+      <c r="X84" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y84" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y84" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z84" t="e">
+        <v/>
+      </c>
+      <c r="Z84" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD84" s="12"/>
+        <v/>
+      </c>
+      <c r="AD84" s="11"/>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85">
+        <v>-160</v>
+      </c>
+      <c r="D85">
+        <v>-157</v>
+      </c>
       <c r="E85">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="1" t="e">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G85" s="1" t="e">
+        <v>-1.8750000000000044E-2</v>
+      </c>
+      <c r="G85" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85">
+        <v>1.8750000000000044</v>
+      </c>
+      <c r="H85" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>ATL</v>
+      </c>
+      <c r="I85" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85">
+        <v>130</v>
+      </c>
+      <c r="K85">
+        <v>132</v>
       </c>
       <c r="L85">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="M85" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N85" s="1" t="e">
+        <v>1.538461538461533E-2</v>
+      </c>
+      <c r="N85" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O85">
+        <v>1.538461538461533</v>
+      </c>
+      <c r="O85" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>CHC</v>
       </c>
       <c r="R85">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S85">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="T85">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U85" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="U85" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V85" s="1" t="e">
+        <v>1.538461538461533E-2</v>
+      </c>
+      <c r="V85" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X85" s="1" t="e">
+        <v>1.538461538461533</v>
+      </c>
+      <c r="X85" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y85" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y85" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z85" t="e">
+        <v/>
+      </c>
+      <c r="Z85" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86">
+        <v>168</v>
+      </c>
+      <c r="D86">
+        <v>127</v>
+      </c>
       <c r="E86">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F86" s="1" t="e">
+        <v>-41</v>
+      </c>
+      <c r="F86" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G86" s="1" t="e">
+        <v>-0.24404761904761907</v>
+      </c>
+      <c r="G86" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86">
+        <v>24.404761904761905</v>
+      </c>
+      <c r="H86" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>MIA</v>
+      </c>
+      <c r="I86" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86">
+        <v>-200</v>
+      </c>
+      <c r="K86">
+        <v>-150</v>
       </c>
       <c r="L86">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="1" t="e">
+        <v>50</v>
+      </c>
+      <c r="M86" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N86" s="1" t="e">
+        <v>-0.25</v>
+      </c>
+      <c r="N86" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O86">
+        <v>25</v>
+      </c>
+      <c r="O86" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>TEX</v>
       </c>
       <c r="R86">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="S86">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="T86">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U86" s="1" t="e">
+        <v>-41</v>
+      </c>
+      <c r="U86" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V86" s="1" t="e">
+        <v>-0.24404761904761907</v>
+      </c>
+      <c r="V86" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X86" s="1" t="e">
+        <v>24.404761904761905</v>
+      </c>
+      <c r="X86" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>MIA</v>
       </c>
       <c r="Y86" s="1" t="e">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z86" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>MIA</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC86" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <f>SUM(AC86:AD86)</f>
+        <v>-100</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>180</v>
+      </c>
+      <c r="D87">
+        <v>195</v>
+      </c>
       <c r="E87">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F87" s="1" t="e">
+        <v>15</v>
+      </c>
+      <c r="F87" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G87" s="1" t="e">
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G87" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87">
+        <v>8.333333333333325</v>
+      </c>
+      <c r="H87" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>WSH</v>
+      </c>
+      <c r="I87" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87">
+        <v>-218</v>
+      </c>
+      <c r="K87">
+        <v>-237</v>
       </c>
       <c r="L87">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="1" t="e">
+        <v>-19</v>
+      </c>
+      <c r="M87" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N87" s="1" t="e">
+        <v>8.7155963302752326E-2</v>
+      </c>
+      <c r="N87" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O87">
+        <v>8.7155963302752326</v>
+      </c>
+      <c r="O87" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>CIN</v>
       </c>
       <c r="R87">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="S87">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-237</v>
       </c>
       <c r="T87">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U87" s="1" t="e">
+        <v>-19</v>
+      </c>
+      <c r="U87" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V87" s="1" t="e">
+        <v>8.7155963302752326E-2</v>
+      </c>
+      <c r="V87" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X87" s="1" t="e">
+        <v>8.7155963302752326</v>
+      </c>
+      <c r="X87" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y87" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y87" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z87" t="e">
+        <v/>
+      </c>
+      <c r="Z87" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>105</v>
+      </c>
+      <c r="D88">
+        <v>-110</v>
+      </c>
       <c r="E88">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="1" t="e">
+        <v>-215</v>
+      </c>
+      <c r="F88" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G88" s="1" t="e">
+        <v>-2.0476190476190474</v>
+      </c>
+      <c r="G88" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="H88" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>TOR</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88">
+        <v>-125</v>
+      </c>
+      <c r="K88">
+        <v>-108</v>
       </c>
       <c r="L88">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="1" t="e">
+        <v>17</v>
+      </c>
+      <c r="M88" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N88" s="1" t="e">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="N88" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O88">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="O88" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>BOS</v>
       </c>
       <c r="R88">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="S88">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="T88">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="1" t="e">
+        <v>-215</v>
+      </c>
+      <c r="U88" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V88" s="1" t="e">
+        <v>-2.0476190476190474</v>
+      </c>
+      <c r="V88" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X88" s="1" t="e">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="X88" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y88" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y88" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z88" t="e">
+        <v/>
+      </c>
+      <c r="Z88" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89">
+        <v>180</v>
+      </c>
+      <c r="D89">
+        <v>188</v>
+      </c>
       <c r="E89">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="1" t="e">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G89" s="1" t="e">
+        <v>4.4444444444444509E-2</v>
+      </c>
+      <c r="G89" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89">
+        <v>4.4444444444444509</v>
+      </c>
+      <c r="H89" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>KC</v>
+      </c>
+      <c r="I89" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89">
+        <v>-218</v>
+      </c>
+      <c r="K89">
+        <v>-229</v>
       </c>
       <c r="L89">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="1" t="e">
+        <v>-11</v>
+      </c>
+      <c r="M89" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N89" s="1" t="e">
+        <v>5.0458715596330306E-2</v>
+      </c>
+      <c r="N89" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O89">
+        <v>5.0458715596330306</v>
+      </c>
+      <c r="O89" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>PHI</v>
       </c>
       <c r="R89">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="S89">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-229</v>
       </c>
       <c r="T89">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="1" t="e">
+        <v>-11</v>
+      </c>
+      <c r="U89" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V89" s="1" t="e">
+        <v>5.0458715596330306E-2</v>
+      </c>
+      <c r="V89" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X89" s="1" t="e">
+        <v>5.0458715596330306</v>
+      </c>
+      <c r="X89" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y89" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y89" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z89" t="e">
+        <v/>
+      </c>
+      <c r="Z89" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90">
+        <v>124</v>
+      </c>
+      <c r="D90">
+        <v>153</v>
+      </c>
       <c r="E90">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="1" t="e">
+        <v>29</v>
+      </c>
+      <c r="F90" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G90" s="1" t="e">
+        <v>0.2338709677419355</v>
+      </c>
+      <c r="G90" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90">
+        <v>23.387096774193552</v>
+      </c>
+      <c r="H90" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>NYM</v>
+      </c>
+      <c r="I90" t="s">
+        <v>45</v>
+      </c>
+      <c r="J90">
+        <v>-148</v>
+      </c>
+      <c r="K90">
+        <v>-185</v>
       </c>
       <c r="L90">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="1" t="e">
+        <v>-37</v>
+      </c>
+      <c r="M90" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N90" s="1" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="N90" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O90">
+        <v>25</v>
+      </c>
+      <c r="O90" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>BAL</v>
       </c>
       <c r="R90">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-148</v>
       </c>
       <c r="S90">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-185</v>
       </c>
       <c r="T90">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="1" t="e">
+        <v>-37</v>
+      </c>
+      <c r="U90" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V90" s="1" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="V90" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>25</v>
       </c>
       <c r="X90" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y90" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y90" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z90" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>TEX</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC90" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD90" s="3">
+        <f>IF(S90&lt;0,((100/ABS(S90))*-AC90)-AC90,((ABS(S90)/100)*-AC90)-AC90)</f>
+        <v>154.05405405405406</v>
+      </c>
+      <c r="AE90" s="3">
+        <f>SUM(AC90:AD90)</f>
+        <v>54.054054054054063</v>
+      </c>
+      <c r="AN90" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91">
+        <v>-180</v>
+      </c>
+      <c r="D91">
+        <v>-180</v>
+      </c>
       <c r="E91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F91" s="1" t="e">
+      <c r="F91" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G91" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>SF</v>
+      </c>
+      <c r="I91" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91">
+        <v>150</v>
+      </c>
+      <c r="K91">
+        <v>151</v>
       </c>
       <c r="L91">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M91" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N91" s="1" t="e">
+        <v>6.6666666666665986E-3</v>
+      </c>
+      <c r="N91" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O91">
+        <v>0.66666666666665986</v>
+      </c>
+      <c r="O91" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>OAK</v>
       </c>
       <c r="R91">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="S91">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="T91">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="U91" s="1" t="e">
+      <c r="U91" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V91" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="V91" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X91" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="X91" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y91" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y91" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z91" t="e">
+        <v/>
+      </c>
+      <c r="Z91" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92">
+        <v>120</v>
+      </c>
+      <c r="D92">
+        <v>122</v>
+      </c>
       <c r="E92">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G92" s="1" t="e">
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="G92" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H92">
+        <v>1.6666666666666607</v>
+      </c>
+      <c r="H92" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>CHW</v>
+      </c>
+      <c r="I92" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92">
+        <v>-142</v>
+      </c>
+      <c r="K92">
+        <v>-145</v>
       </c>
       <c r="L92">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M92" s="1" t="e">
+        <v>-3</v>
+      </c>
+      <c r="M92" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N92" s="1" t="e">
+        <v>2.1126760563380254E-2</v>
+      </c>
+      <c r="N92" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O92">
+        <v>2.1126760563380254</v>
+      </c>
+      <c r="O92" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>CLE</v>
       </c>
       <c r="R92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-142</v>
       </c>
       <c r="S92">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-145</v>
       </c>
       <c r="T92">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U92" s="1" t="e">
+        <v>-3</v>
+      </c>
+      <c r="U92" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V92" s="1" t="e">
+        <v>2.1126760563380254E-2</v>
+      </c>
+      <c r="V92" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X92" s="1" t="e">
+        <v>2.1126760563380254</v>
+      </c>
+      <c r="X92" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y92" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y92" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z92" t="e">
+        <v/>
+      </c>
+      <c r="Z92" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93">
+        <v>170</v>
+      </c>
+      <c r="D93">
+        <v>222</v>
+      </c>
       <c r="E93">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="1" t="e">
+        <v>52</v>
+      </c>
+      <c r="F93" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G93" s="1" t="e">
+        <v>0.30588235294117649</v>
+      </c>
+      <c r="G93" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93">
+        <v>30.588235294117649</v>
+      </c>
+      <c r="H93" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>PIT</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93">
+        <v>-205</v>
+      </c>
+      <c r="K93">
+        <v>-271</v>
       </c>
       <c r="L93">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M93" s="1" t="e">
+        <v>-66</v>
+      </c>
+      <c r="M93" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N93" s="1" t="e">
+        <v>0.32195121951219519</v>
+      </c>
+      <c r="N93" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O93">
+        <v>32.195121951219519</v>
+      </c>
+      <c r="O93" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>MIL</v>
       </c>
       <c r="R93">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-205</v>
       </c>
       <c r="S93">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-271</v>
       </c>
       <c r="T93">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U93" s="1" t="e">
+        <v>-66</v>
+      </c>
+      <c r="U93" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V93" s="1" t="e">
+        <v>0.32195121951219519</v>
+      </c>
+      <c r="V93" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>32.195121951219519</v>
       </c>
       <c r="X93" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y93" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y93" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z93" t="e">
+        <v>MIL</v>
+      </c>
+      <c r="Z93" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v>MIL</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC93" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD93" s="3">
+        <f>IF(S93&lt;0,((100/ABS(S93))*-AC93)-AC93,((ABS(S93)/100)*-AC93)-AC93)</f>
+        <v>136.90036900369003</v>
+      </c>
+      <c r="AE93" s="3">
+        <f>SUM(AC93:AD93)</f>
+        <v>36.900369003690031</v>
+      </c>
+      <c r="AN93" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94">
+        <v>136</v>
+      </c>
+      <c r="D94">
+        <v>139</v>
+      </c>
       <c r="E94">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="1" t="e">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G94" s="1" t="e">
+        <v>2.2058823529411686E-2</v>
+      </c>
+      <c r="G94" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H94">
+        <v>2.2058823529411686</v>
+      </c>
+      <c r="H94" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>ARI</v>
+      </c>
+      <c r="I94" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94">
+        <v>-162</v>
+      </c>
+      <c r="K94">
+        <v>-164</v>
       </c>
       <c r="L94">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M94" s="1" t="e">
+        <v>-2</v>
+      </c>
+      <c r="M94" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N94" s="1" t="e">
+        <v>1.2345679012345734E-2</v>
+      </c>
+      <c r="N94" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O94">
+        <v>1.2345679012345734</v>
+      </c>
+      <c r="O94" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>MIN</v>
       </c>
       <c r="R94">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-162</v>
       </c>
       <c r="S94">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-164</v>
       </c>
       <c r="T94">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U94" s="1" t="e">
+        <v>-2</v>
+      </c>
+      <c r="U94" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V94" s="1" t="e">
+        <v>1.2345679012345734E-2</v>
+      </c>
+      <c r="V94" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X94" s="1" t="e">
+        <v>1.2345679012345734</v>
+      </c>
+      <c r="X94" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y94" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y94" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z94" t="e">
+        <v/>
+      </c>
+      <c r="Z94" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95">
+        <v>180</v>
+      </c>
+      <c r="D95">
+        <v>199</v>
+      </c>
       <c r="E95">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="1" t="e">
+        <v>19</v>
+      </c>
+      <c r="F95" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G95" s="1" t="e">
+        <v>0.10555555555555562</v>
+      </c>
+      <c r="G95" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H95">
+        <v>10.555555555555562</v>
+      </c>
+      <c r="H95" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>COL</v>
+      </c>
+      <c r="I95" t="s">
+        <v>39</v>
+      </c>
+      <c r="J95">
+        <v>-218</v>
+      </c>
+      <c r="K95">
+        <v>-245</v>
       </c>
       <c r="L95">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="1" t="e">
+        <v>-27</v>
+      </c>
+      <c r="M95" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N95" s="1" t="e">
+        <v>0.12385321100917435</v>
+      </c>
+      <c r="N95" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O95">
+        <v>12.385321100917434</v>
+      </c>
+      <c r="O95" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>STL</v>
       </c>
       <c r="R95">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="S95">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-245</v>
       </c>
       <c r="T95">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="1" t="e">
+        <v>-27</v>
+      </c>
+      <c r="U95" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V95" s="1" t="e">
+        <v>0.12385321100917435</v>
+      </c>
+      <c r="V95" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X95" s="1" t="e">
+        <v>12.385321100917434</v>
+      </c>
+      <c r="X95" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y95" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y95" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z95" t="e">
+        <v/>
+      </c>
+      <c r="Z95" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96">
+        <v>110</v>
+      </c>
+      <c r="D96">
+        <v>141</v>
+      </c>
       <c r="E96">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F96" s="1" t="e">
+        <v>31</v>
+      </c>
+      <c r="F96" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G96" s="1" t="e">
+        <v>0.28181818181818175</v>
+      </c>
+      <c r="G96" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H96">
+        <v>28.181818181818173</v>
+      </c>
+      <c r="H96" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>LAD</v>
+      </c>
+      <c r="I96" t="s">
+        <v>43</v>
+      </c>
+      <c r="J96">
+        <v>-130</v>
+      </c>
+      <c r="K96">
+        <v>-167</v>
       </c>
       <c r="L96">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="1" t="e">
+        <v>-37</v>
+      </c>
+      <c r="M96" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N96" s="1" t="e">
+        <v>0.28461538461538471</v>
+      </c>
+      <c r="N96" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O96">
+        <v>28.461538461538471</v>
+      </c>
+      <c r="O96" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>SD</v>
       </c>
       <c r="R96">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="S96">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-167</v>
       </c>
       <c r="T96">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="1" t="e">
+        <v>-37</v>
+      </c>
+      <c r="U96" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V96" s="1" t="e">
+        <v>0.28461538461538471</v>
+      </c>
+      <c r="V96" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>28.461538461538471</v>
       </c>
       <c r="X96" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y96" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y96" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z96" t="e">
+        <v>SD</v>
+      </c>
+      <c r="Z96" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="97" spans="5:26" x14ac:dyDescent="0.25">
+        <v>SD</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC96" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD96" s="3">
+        <f>IF(S96&lt;0,((100/ABS(S96))*-AC96)-AC96,((ABS(S96)/100)*-AC96)-AC96)</f>
+        <v>159.88023952095807</v>
+      </c>
+      <c r="AE96" s="3">
+        <f>SUM(AC96:AD96)</f>
+        <v>59.880239520958071</v>
+      </c>
+      <c r="AN96" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>-102</v>
+      </c>
+      <c r="D97">
+        <v>-135</v>
+      </c>
       <c r="E97">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F97" s="1" t="e">
+        <v>-33</v>
+      </c>
+      <c r="F97" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G97" s="1" t="e">
+        <v>0.32352941176470584</v>
+      </c>
+      <c r="G97" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H97">
+        <v>32.352941176470587</v>
+      </c>
+      <c r="H97" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>SEA</v>
+      </c>
+      <c r="I97" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97">
+        <v>-118</v>
+      </c>
+      <c r="K97">
+        <v>113</v>
       </c>
       <c r="L97">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="1" t="e">
+        <v>231</v>
+      </c>
+      <c r="M97" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N97" s="1" t="e">
+        <v>-1.9576271186440679</v>
+      </c>
+      <c r="N97" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O97">
+        <v>-26.271186440677969</v>
+      </c>
+      <c r="O97" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>LAA</v>
       </c>
       <c r="R97">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-102</v>
       </c>
       <c r="S97">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-135</v>
       </c>
       <c r="T97">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="1" t="e">
+        <v>-33</v>
+      </c>
+      <c r="U97" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V97" s="1" t="e">
+        <v>0.32352941176470584</v>
+      </c>
+      <c r="V97" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X97" s="1" t="e">
+        <v>32.352941176470587</v>
+      </c>
+      <c r="X97" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>SEA</v>
       </c>
       <c r="Y97" s="1" t="e">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z97" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="98" spans="5:26" x14ac:dyDescent="0.25">
+        <v>SEA</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC97" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD97" s="3">
+        <f>IF(S97&lt;0,((100/ABS(S97))*-AC97)-AC97,((ABS(S97)/100)*-AC97)-AC97)</f>
+        <v>174.07407407407408</v>
+      </c>
+      <c r="AE97" s="3">
+        <f>SUM(AC97:AD97)</f>
+        <v>74.074074074074076</v>
+      </c>
+      <c r="AN97" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98">
+        <v>-148</v>
+      </c>
+      <c r="D98">
+        <v>-147</v>
+      </c>
       <c r="E98">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F98" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G98" s="1" t="e">
+        <v>-6.7567567567567988E-3</v>
+      </c>
+      <c r="G98" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H98">
+        <v>0.67567567567567988</v>
+      </c>
+      <c r="H98" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>CHW</v>
+      </c>
+      <c r="I98" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98">
+        <v>124</v>
+      </c>
+      <c r="K98">
+        <v>123</v>
       </c>
       <c r="L98">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="1" t="e">
+        <v>-1</v>
+      </c>
+      <c r="M98" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N98" s="1" t="e">
+        <v>-8.0645161290322509E-3</v>
+      </c>
+      <c r="N98" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O98">
+        <v>0.80645161290322509</v>
+      </c>
+      <c r="O98" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>CLE</v>
       </c>
       <c r="R98">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="S98">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="T98">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="1" t="e">
+        <v>-1</v>
+      </c>
+      <c r="U98" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V98" s="1" t="e">
+        <v>-8.0645161290322509E-3</v>
+      </c>
+      <c r="V98" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X98" s="1" t="e">
+        <v>0.80645161290322509</v>
+      </c>
+      <c r="X98" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y98" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y98" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z98" t="e">
+        <v/>
+      </c>
+      <c r="Z98" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="99" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99">
+        <v>-135</v>
+      </c>
+      <c r="D99">
+        <v>-202</v>
+      </c>
       <c r="E99">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F99" s="1" t="e">
+        <v>-67</v>
+      </c>
+      <c r="F99" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G99" s="1" t="e">
+        <v>0.49629629629629624</v>
+      </c>
+      <c r="G99" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H99">
+        <v>49.629629629629626</v>
+      </c>
+      <c r="H99" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>NYM</v>
+      </c>
+      <c r="I99" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99">
+        <v>114</v>
+      </c>
+      <c r="K99">
+        <v>170</v>
       </c>
       <c r="L99">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M99" s="1" t="e">
+        <v>56</v>
+      </c>
+      <c r="M99" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N99" s="1" t="e">
+        <v>0.49122807017543857</v>
+      </c>
+      <c r="N99" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O99">
+        <v>49.122807017543856</v>
+      </c>
+      <c r="O99" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>BAL</v>
       </c>
       <c r="R99">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-135</v>
       </c>
       <c r="S99">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-202</v>
       </c>
       <c r="T99">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U99" s="1" t="e">
+        <v>-67</v>
+      </c>
+      <c r="U99" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V99" s="1" t="e">
+        <v>0.49629629629629624</v>
+      </c>
+      <c r="V99" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X99" s="1" t="e">
+        <v>49.629629629629626</v>
+      </c>
+      <c r="X99" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
+        <v>NYM</v>
       </c>
       <c r="Y99" s="1" t="e">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z99" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="100" spans="5:26" x14ac:dyDescent="0.25">
+        <v>NYM</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC99" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <f>SUM(AC99:AD99)</f>
+        <v>-100</v>
+      </c>
+      <c r="AN99" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100">
+        <v>-112</v>
+      </c>
+      <c r="D100">
+        <v>-127</v>
+      </c>
       <c r="E100">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="1" t="e">
+        <v>-15</v>
+      </c>
+      <c r="F100" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G100" s="1" t="e">
+        <v>0.1339285714285714</v>
+      </c>
+      <c r="G100" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100">
+        <v>13.392857142857139</v>
+      </c>
+      <c r="H100" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>HOU</v>
+      </c>
+      <c r="I100" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100">
+        <v>-108</v>
+      </c>
+      <c r="K100">
+        <v>107</v>
       </c>
       <c r="L100">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M100" s="1" t="e">
+        <v>215</v>
+      </c>
+      <c r="M100" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N100" s="1" t="e">
+        <v>-1.9907407407407407</v>
+      </c>
+      <c r="N100" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O100">
+        <v>-13.888888888888889</v>
+      </c>
+      <c r="O100" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>NYY</v>
       </c>
       <c r="R100">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-112</v>
       </c>
       <c r="S100">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-127</v>
       </c>
       <c r="T100">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U100" s="1" t="e">
+        <v>-15</v>
+      </c>
+      <c r="U100" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V100" s="1" t="e">
+        <v>0.1339285714285714</v>
+      </c>
+      <c r="V100" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X100" s="1" t="e">
+        <v>13.392857142857139</v>
+      </c>
+      <c r="X100" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y100" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y100" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z100" t="e">
+        <v/>
+      </c>
+      <c r="Z100" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="101" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>-155</v>
+      </c>
+      <c r="D101">
+        <v>-115</v>
+      </c>
       <c r="E101">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="1" t="e">
+        <v>40</v>
+      </c>
+      <c r="F101" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G101" s="1" t="e">
+        <v>-0.25806451612903225</v>
+      </c>
+      <c r="G101" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H101">
+        <v>25.806451612903224</v>
+      </c>
+      <c r="H101" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>TOR</v>
+      </c>
+      <c r="I101" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101">
+        <v>130</v>
+      </c>
+      <c r="K101">
+        <v>-105</v>
       </c>
       <c r="L101">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="1" t="e">
+        <v>-235</v>
+      </c>
+      <c r="M101" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N101" s="1" t="e">
+        <v>-1.8076923076923077</v>
+      </c>
+      <c r="N101" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O101">
+        <v>26.923076923076923</v>
+      </c>
+      <c r="O101" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>BOS</v>
       </c>
       <c r="R101">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S101">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="T101">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U101" s="1" t="e">
+        <v>-235</v>
+      </c>
+      <c r="U101" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V101" s="1" t="e">
+        <v>-1.8076923076923077</v>
+      </c>
+      <c r="V101" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>26.923076923076923</v>
       </c>
       <c r="X101" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y101" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y101" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z101" t="e">
+        <v>BOS</v>
+      </c>
+      <c r="Z101" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="102" spans="5:26" x14ac:dyDescent="0.25">
+        <v>BOS</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC101" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <f>SUM(AC101:AD101)</f>
+        <v>-100</v>
+      </c>
+      <c r="AN101" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102">
+        <v>-218</v>
+      </c>
+      <c r="D102">
+        <v>-213</v>
+      </c>
       <c r="E102">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="1" t="e">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G102" s="1" t="e">
+        <v>-2.2935779816513735E-2</v>
+      </c>
+      <c r="G102" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H102">
+        <v>2.2935779816513735</v>
+      </c>
+      <c r="H102" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>KC</v>
+      </c>
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102">
+        <v>180</v>
+      </c>
+      <c r="K102">
+        <v>177</v>
       </c>
       <c r="L102">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="1" t="e">
+        <v>-3</v>
+      </c>
+      <c r="M102" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N102" s="1" t="e">
+        <v>-1.6666666666666718E-2</v>
+      </c>
+      <c r="N102" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O102">
+        <v>1.6666666666666718</v>
+      </c>
+      <c r="O102" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>PHI</v>
       </c>
       <c r="R102">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="S102">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="T102">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U102" s="1" t="e">
+        <v>-3</v>
+      </c>
+      <c r="U102" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V102" s="1" t="e">
+        <v>-1.6666666666666718E-2</v>
+      </c>
+      <c r="V102" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X102" s="1" t="e">
+        <v>1.6666666666666718</v>
+      </c>
+      <c r="X102" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y102" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y102" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z102" t="e">
+        <v/>
+      </c>
+      <c r="Z102" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="103" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>-218</v>
+      </c>
+      <c r="D103">
+        <v>-165</v>
+      </c>
       <c r="E103">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F103" s="1" t="e">
+        <v>53</v>
+      </c>
+      <c r="F103" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G103" s="1" t="e">
+        <v>-0.24311926605504586</v>
+      </c>
+      <c r="G103" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H103">
+        <v>24.311926605504585</v>
+      </c>
+      <c r="H103" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>WSH</v>
+      </c>
+      <c r="I103" t="s">
+        <v>28</v>
+      </c>
+      <c r="J103">
+        <v>180</v>
+      </c>
+      <c r="K103">
+        <v>139</v>
       </c>
       <c r="L103">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M103" s="1" t="e">
+        <v>-41</v>
+      </c>
+      <c r="M103" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N103" s="1" t="e">
+        <v>-0.22777777777777775</v>
+      </c>
+      <c r="N103" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O103">
+        <v>22.777777777777775</v>
+      </c>
+      <c r="O103" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>CIN</v>
       </c>
       <c r="R103">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="S103">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T103">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U103" s="1" t="e">
+        <v>-41</v>
+      </c>
+      <c r="U103" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V103" s="1" t="e">
+        <v>-0.22777777777777775</v>
+      </c>
+      <c r="V103" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+        <v>22.777777777777775</v>
       </c>
       <c r="X103" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y103" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y103" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z103" t="e">
+        <v>CIN</v>
+      </c>
+      <c r="Z103" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="104" spans="5:26" x14ac:dyDescent="0.25">
+        <v>CIN</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC103" s="2">
+        <v>-100</v>
+      </c>
+      <c r="AD103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="3">
+        <f>SUM(AC103:AD103)</f>
+        <v>-100</v>
+      </c>
+      <c r="AN103" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>160</v>
+      </c>
+      <c r="D104">
+        <v>137</v>
+      </c>
       <c r="E104">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F104" s="1" t="e">
+        <v>-23</v>
+      </c>
+      <c r="F104" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G104" s="1" t="e">
+        <v>-0.14375000000000004</v>
+      </c>
+      <c r="G104" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H104">
+        <v>14.375000000000004</v>
+      </c>
+      <c r="H104" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>TB</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104">
+        <v>-192</v>
+      </c>
+      <c r="K104">
+        <v>-163</v>
       </c>
       <c r="L104">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="1" t="e">
+        <v>29</v>
+      </c>
+      <c r="M104" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N104" s="1" t="e">
+        <v>-0.15104166666666663</v>
+      </c>
+      <c r="N104" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O104">
+        <v>15.104166666666663</v>
+      </c>
+      <c r="O104" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>DET</v>
       </c>
       <c r="R104">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S104">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="T104">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U104" s="1" t="e">
+        <v>-23</v>
+      </c>
+      <c r="U104" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V104" s="1" t="e">
+        <v>-0.14375000000000004</v>
+      </c>
+      <c r="V104" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X104" s="1" t="e">
+        <v>14.375000000000004</v>
+      </c>
+      <c r="X104" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y104" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y104" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z104" t="e">
+        <v/>
+      </c>
+      <c r="Z104" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105">
+        <v>-192</v>
+      </c>
+      <c r="D105">
+        <v>-214</v>
+      </c>
       <c r="E105">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F105" s="1" t="e">
+        <v>-22</v>
+      </c>
+      <c r="F105" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G105" s="1" t="e">
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H105">
+        <v>11.458333333333325</v>
+      </c>
+      <c r="H105" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>PIT</v>
+      </c>
+      <c r="I105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105">
+        <v>160</v>
+      </c>
+      <c r="K105">
+        <v>179</v>
       </c>
       <c r="L105">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M105" s="1" t="e">
+        <v>19</v>
+      </c>
+      <c r="M105" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N105" s="1" t="e">
+        <v>0.11874999999999991</v>
+      </c>
+      <c r="N105" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O105">
+        <v>11.874999999999991</v>
+      </c>
+      <c r="O105" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>MIL</v>
       </c>
       <c r="R105">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-192</v>
       </c>
       <c r="S105">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-214</v>
       </c>
       <c r="T105">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U105" s="1" t="e">
+        <v>-22</v>
+      </c>
+      <c r="U105" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V105" s="1" t="e">
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="V105" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X105" s="1" t="e">
+        <v>11.458333333333325</v>
+      </c>
+      <c r="X105" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y105" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y105" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z105" t="e">
+        <v/>
+      </c>
+      <c r="Z105" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106">
+        <v>120</v>
+      </c>
+      <c r="D106">
+        <v>130</v>
+      </c>
       <c r="E106">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F106" s="1" t="e">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G106" s="1" t="e">
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G106" s="1">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106">
+        <v>8.333333333333325</v>
+      </c>
+      <c r="H106" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>ARI</v>
+      </c>
+      <c r="I106" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106">
+        <v>-142</v>
+      </c>
+      <c r="K106">
+        <v>-155</v>
       </c>
       <c r="L106">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M106" s="1" t="e">
+        <v>-13</v>
+      </c>
+      <c r="M106" s="1">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N106" s="1" t="e">
+        <v>9.1549295774647987E-2</v>
+      </c>
+      <c r="N106" s="1">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O106">
+        <v>9.1549295774647987</v>
+      </c>
+      <c r="O106" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>MIN</v>
       </c>
       <c r="R106">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-142</v>
       </c>
       <c r="S106">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="T106">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="1" t="e">
+        <v>-13</v>
+      </c>
+      <c r="U106" s="1">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V106" s="1" t="e">
+        <v>9.1549295774647987E-2</v>
+      </c>
+      <c r="V106" s="1">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X106" s="1" t="e">
+        <v>9.1549295774647987</v>
+      </c>
+      <c r="X106" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y106" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y106" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z106" t="e">
+        <v/>
+      </c>
+      <c r="Z106" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="107" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107">
+        <v>-258</v>
+      </c>
+      <c r="D107">
+        <v>-202</v>
+      </c>
       <c r="E107">
         <f t="shared" ref="E107:E170" si="54">+D107-C107</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="1" t="e">
+        <v>56</v>
+      </c>
+      <c r="F107" s="1">
         <f t="shared" ref="F107:F170" si="55">+(D107/C107)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G107" s="1" t="e">
+        <v>-0.21705426356589153</v>
+      </c>
+      <c r="G107" s="1">
         <f t="shared" ref="G107:G170" si="56">IF(ABS(E107)&lt;100,(ABS(F107))*100,((ABS(E107)-200)/C107)*100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H107">
+        <v>21.705426356589154</v>
+      </c>
+      <c r="H107" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>COL</v>
+      </c>
+      <c r="I107" t="s">
+        <v>39</v>
+      </c>
+      <c r="J107">
+        <v>210</v>
+      </c>
+      <c r="K107">
+        <v>170</v>
       </c>
       <c r="L107">
         <f t="shared" ref="L107:L170" si="57">+K107-J107</f>
-        <v>0</v>
-      </c>
-      <c r="M107" s="1" t="e">
+        <v>-40</v>
+      </c>
+      <c r="M107" s="1">
         <f t="shared" ref="M107:M170" si="58">+(K107/J107)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N107" s="1" t="e">
+        <v>-0.19047619047619047</v>
+      </c>
+      <c r="N107" s="1">
         <f t="shared" ref="N107:N170" si="59">IF(ABS(L107)&lt;100,(ABS(M107))*100,((ABS(L107)-200)/J107)*100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O107">
+        <v>19.047619047619047</v>
+      </c>
+      <c r="O107" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>STL</v>
       </c>
       <c r="R107">
         <f t="shared" ref="R107:R170" si="60">IF($E107&lt;$L107,C107,J107)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="S107">
         <f t="shared" ref="S107:S170" si="61">IF($E107&lt;$L107,D107,K107)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="T107">
         <f t="shared" ref="T107:T170" si="62">IF($E107&lt;$L107,E107,L107)</f>
-        <v>0</v>
-      </c>
-      <c r="U107" s="1" t="e">
+        <v>-40</v>
+      </c>
+      <c r="U107" s="1">
         <f t="shared" ref="U107:U170" si="63">IF($E107&lt;$L107,F107,M107)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V107" s="1" t="e">
+        <v>-0.19047619047619047</v>
+      </c>
+      <c r="V107" s="1">
         <f t="shared" ref="V107:V170" si="64">IF($E107&lt;$L107,G107,N107)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X107" s="1" t="e">
+        <v>19.047619047619047</v>
+      </c>
+      <c r="X107" s="1" t="str">
         <f t="shared" ref="X107:X170" si="65">IF(V107&gt;19.49,VLOOKUP(V107,G:H,2,FALSE),"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y107" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y107" s="1" t="str">
         <f t="shared" ref="Y107:Y170" si="66">IF(V107&gt;19.49,VLOOKUP(V107,N:O,2,FALSE),"")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z107" t="e">
+        <v/>
+      </c>
+      <c r="Z107" t="str">
         <f t="shared" ref="Z107:Z170" si="67">IF(ISERROR(X107),Y107,X107)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108">
+        <v>110</v>
+      </c>
+      <c r="D108">
+        <v>107</v>
+      </c>
       <c r="E108">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F108" s="1" t="e">
+        <v>-3</v>
+      </c>
+      <c r="F108" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G108" s="1" t="e">
+        <v>-2.7272727272727226E-2</v>
+      </c>
+      <c r="G108" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H108">
+        <v>2.7272727272727226</v>
+      </c>
+      <c r="H108" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>ATL</v>
+      </c>
+      <c r="I108" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108">
+        <v>-130</v>
+      </c>
+      <c r="K108">
+        <v>-126</v>
       </c>
       <c r="L108">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M108" s="1" t="e">
+        <v>4</v>
+      </c>
+      <c r="M108" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N108" s="1" t="e">
+        <v>-3.0769230769230771E-2</v>
+      </c>
+      <c r="N108" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O108">
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="O108" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>CHC</v>
       </c>
       <c r="R108">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="S108">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="T108">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U108" s="1" t="e">
+        <v>-3</v>
+      </c>
+      <c r="U108" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V108" s="1" t="e">
+        <v>-2.7272727272727226E-2</v>
+      </c>
+      <c r="V108" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X108" s="1" t="e">
+        <v>2.7272727272727226</v>
+      </c>
+      <c r="X108" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y108" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y108" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z108" t="e">
+        <v/>
+      </c>
+      <c r="Z108" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109">
+        <v>-118</v>
+      </c>
+      <c r="D109">
+        <v>-114</v>
+      </c>
       <c r="E109">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F109" s="1" t="e">
+        <v>4</v>
+      </c>
+      <c r="F109" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G109" s="1" t="e">
+        <v>-3.3898305084745783E-2</v>
+      </c>
+      <c r="G109" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H109">
+        <v>3.3898305084745783</v>
+      </c>
+      <c r="H109" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>MIA</v>
+      </c>
+      <c r="I109" t="s">
+        <v>29</v>
+      </c>
+      <c r="J109">
+        <v>-102</v>
+      </c>
+      <c r="K109">
+        <v>-105</v>
       </c>
       <c r="L109">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="1" t="e">
+        <v>-3</v>
+      </c>
+      <c r="M109" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N109" s="1" t="e">
+        <v>2.9411764705882248E-2</v>
+      </c>
+      <c r="N109" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O109">
+        <v>2.9411764705882248</v>
+      </c>
+      <c r="O109" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>TEX</v>
       </c>
       <c r="R109">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-102</v>
       </c>
       <c r="S109">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="T109">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="1" t="e">
+        <v>-3</v>
+      </c>
+      <c r="U109" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V109" s="1" t="e">
+        <v>2.9411764705882248E-2</v>
+      </c>
+      <c r="V109" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X109" s="1" t="e">
+        <v>2.9411764705882248</v>
+      </c>
+      <c r="X109" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y109" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y109" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z109" t="e">
+        <v/>
+      </c>
+      <c r="Z109" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="110" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110">
+        <v>180</v>
+      </c>
+      <c r="D110">
+        <v>169</v>
+      </c>
       <c r="E110">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="1" t="e">
+        <v>-11</v>
+      </c>
+      <c r="F110" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G110" s="1" t="e">
+        <v>-6.1111111111111116E-2</v>
+      </c>
+      <c r="G110" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H110">
+        <v>6.1111111111111116</v>
+      </c>
+      <c r="H110" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>SF</v>
+      </c>
+      <c r="I110" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110">
+        <v>-218</v>
+      </c>
+      <c r="K110">
+        <v>-201</v>
       </c>
       <c r="L110">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M110" s="1" t="e">
+        <v>17</v>
+      </c>
+      <c r="M110" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N110" s="1" t="e">
+        <v>-7.7981651376146766E-2</v>
+      </c>
+      <c r="N110" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O110">
+        <v>7.7981651376146761</v>
+      </c>
+      <c r="O110" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>OAK</v>
       </c>
       <c r="R110">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="S110">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="T110">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U110" s="1" t="e">
+        <v>-11</v>
+      </c>
+      <c r="U110" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V110" s="1" t="e">
+        <v>-6.1111111111111116E-2</v>
+      </c>
+      <c r="V110" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X110" s="1" t="e">
+        <v>6.1111111111111116</v>
+      </c>
+      <c r="X110" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y110" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y110" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z110" t="e">
+        <v/>
+      </c>
+      <c r="Z110" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="111" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>-112</v>
+      </c>
+      <c r="D111">
+        <v>-123</v>
+      </c>
       <c r="E111">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="1" t="e">
+        <v>-11</v>
+      </c>
+      <c r="F111" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G111" s="1" t="e">
+        <v>9.8214285714285809E-2</v>
+      </c>
+      <c r="G111" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H111">
+        <v>9.8214285714285801</v>
+      </c>
+      <c r="H111" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>SEA</v>
+      </c>
+      <c r="I111" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>-108</v>
+      </c>
+      <c r="K111">
+        <v>104</v>
       </c>
       <c r="L111">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="1" t="e">
+        <v>212</v>
+      </c>
+      <c r="M111" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N111" s="1" t="e">
+        <v>-1.9629629629629628</v>
+      </c>
+      <c r="N111" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O111">
+        <v>-11.111111111111111</v>
+      </c>
+      <c r="O111" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>LAA</v>
       </c>
       <c r="R111">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-112</v>
       </c>
       <c r="S111">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-123</v>
       </c>
       <c r="T111">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U111" s="1" t="e">
+        <v>-11</v>
+      </c>
+      <c r="U111" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V111" s="1" t="e">
+        <v>9.8214285714285809E-2</v>
+      </c>
+      <c r="V111" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X111" s="1" t="e">
+        <v>9.8214285714285801</v>
+      </c>
+      <c r="X111" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y111" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y111" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z111" t="e">
+        <v/>
+      </c>
+      <c r="Z111" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="112" spans="5:26" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112">
+        <v>108</v>
+      </c>
+      <c r="D112">
+        <v>-108</v>
+      </c>
       <c r="E112">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F112" s="1" t="e">
+        <v>-216</v>
+      </c>
+      <c r="F112" s="1">
         <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G112" s="1" t="e">
+        <v>-2</v>
+      </c>
+      <c r="G112" s="1">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H112">
+        <v>14.814814814814813</v>
+      </c>
+      <c r="H112" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>LAD</v>
+      </c>
+      <c r="I112" t="s">
+        <v>43</v>
+      </c>
+      <c r="J112">
+        <v>-126</v>
+      </c>
+      <c r="K112">
+        <v>-111</v>
       </c>
       <c r="L112">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="1" t="e">
+        <v>15</v>
+      </c>
+      <c r="M112" s="1">
         <f t="shared" si="58"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N112" s="1" t="e">
+        <v>-0.11904761904761907</v>
+      </c>
+      <c r="N112" s="1">
         <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O112">
+        <v>11.904761904761907</v>
+      </c>
+      <c r="O112" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>SD</v>
       </c>
       <c r="R112">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="S112">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="T112">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="U112" s="1" t="e">
+        <v>-216</v>
+      </c>
+      <c r="U112" s="1">
         <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V112" s="1" t="e">
+        <v>-2</v>
+      </c>
+      <c r="V112" s="1">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X112" s="1" t="e">
+        <v>14.814814814814813</v>
+      </c>
+      <c r="X112" s="1" t="str">
         <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y112" s="1" t="e">
+        <v/>
+      </c>
+      <c r="Y112" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z112" t="e">
+        <v/>
+      </c>
+      <c r="Z112" t="str">
         <f t="shared" si="67"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="113" spans="5:26" x14ac:dyDescent="0.25">
@@ -35919,15 +36697,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:XFD1001">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$V3&gt;19.49</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$AK$2&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$AK$2&gt;=0</formula>
     </cfRule>
   </conditionalFormatting>
